--- a/dataset/excel data/329-212.xlsx
+++ b/dataset/excel data/329-212.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98DE0428-F158-4E52-A170-8E5344E7B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC56574-5B89-4457-AFBE-3ECCCDA26E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="329-212" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="109">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0908</t>
+    <t>0.0894</t>
   </si>
   <si>
     <t>1702</t>
@@ -280,97 +280,151 @@
     <t>HAL</t>
   </si>
   <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>0.4281</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>0.5338</t>
-  </si>
-  <si>
-    <t>0.0395</t>
-  </si>
-  <si>
-    <t>LIV</t>
+    <t>0.4444</t>
+  </si>
+  <si>
+    <t>0.0151</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>0.2228</t>
+  </si>
+  <si>
+    <t>0.1107</t>
   </si>
   <si>
     <t>BAT</t>
   </si>
   <si>
-    <t>0.0223</t>
-  </si>
-  <si>
-    <t>0.4756</t>
-  </si>
-  <si>
-    <t>KIT</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>BED</t>
-  </si>
-  <si>
-    <t>0.0901</t>
+    <t>0.0529</t>
+  </si>
+  <si>
+    <t>0.0921</t>
   </si>
   <si>
     <t>DRE</t>
   </si>
   <si>
-    <t>0.4356</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>0.8585</t>
-  </si>
-  <si>
-    <t>0.0325</t>
-  </si>
-  <si>
-    <t>UTI</t>
-  </si>
-  <si>
-    <t>0.7937</t>
-  </si>
-  <si>
-    <t>0.0106</t>
-  </si>
-  <si>
-    <t>0.8835</t>
-  </si>
-  <si>
-    <t>0.0316</t>
-  </si>
-  <si>
-    <t>GAR</t>
+    <t>0.8899</t>
+  </si>
+  <si>
+    <t>0.0308</t>
+  </si>
+  <si>
+    <t>0.9032</t>
+  </si>
+  <si>
+    <t>0.0101</t>
+  </si>
+  <si>
+    <t>0.0152</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>0.6944</t>
-  </si>
-  <si>
-    <t>0.0121</t>
-  </si>
-  <si>
-    <t>0.1127</t>
-  </si>
-  <si>
-    <t>0.7802</t>
-  </si>
-  <si>
-    <t>0.0218</t>
-  </si>
-  <si>
-    <t>0.2327</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-  <si>
-    <t>0.0549</t>
+    <t>0.0214</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.4939</t>
+  </si>
+  <si>
+    <t>0.0386</t>
+  </si>
+  <si>
+    <t>0.6753</t>
+  </si>
+  <si>
+    <t>0.0116</t>
+  </si>
+  <si>
+    <t>0.0069</t>
+  </si>
+  <si>
+    <t>329-212-2</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
+    <t>0.1477</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>0.1128</t>
+  </si>
+  <si>
+    <t>0.1395</t>
+  </si>
+  <si>
+    <t>0.3935</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.0107</t>
+  </si>
+  <si>
+    <t>0.0061</t>
+  </si>
+  <si>
+    <t>0.0175</t>
+  </si>
+  <si>
+    <t>0.0072</t>
+  </si>
+  <si>
+    <t>0.6824</t>
+  </si>
+  <si>
+    <t>0.0398</t>
+  </si>
+  <si>
+    <t>0.5287</t>
+  </si>
+  <si>
+    <t>0.0123</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.0142</t>
   </si>
 </sst>
 </file>
@@ -519,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,13 +583,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,13 +604,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,37 +619,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -925,30 +982,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -977,14 +1034,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1055,10 +1112,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1237,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.318</v>
+        <v>0.31559999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>0.28549999999999998</v>
+        <v>0.28320000000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.85880000000000001</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
@@ -1297,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="1">
         <v>1</v>
@@ -1329,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.318</v>
+        <v>0.31559999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>0.28549999999999998</v>
+        <v>0.28320000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.85880000000000001</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>54</v>
@@ -1383,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
         <v>1</v>
@@ -1415,22 +1472,22 @@
         <v>60</v>
       </c>
       <c r="F7" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.30959999999999999</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>0.12740000000000001</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>55</v>
@@ -1442,7 +1499,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>58</v>
@@ -1454,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1469,28 +1526,28 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="1">
         <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1504,22 +1561,22 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.15690000000000001</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>0.1419</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J8" s="1">
-        <v>0.85229999999999995</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>54</v>
@@ -1534,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1546,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1561,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>59</v>
@@ -1576,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1596,7 +1653,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1605,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J9" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>54</v>
@@ -1626,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1638,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1665,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -1688,7 +1745,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1697,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J10" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>54</v>
@@ -1718,7 +1775,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1730,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1751,22 +1808,22 @@
         <v>2</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1780,7 +1837,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1789,13 +1846,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J11" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>54</v>
@@ -1810,7 +1867,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1822,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1843,22 +1900,22 @@
         <v>2</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1872,7 +1929,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1881,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J12" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>54</v>
@@ -1902,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1914,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1935,22 +1992,22 @@
         <v>2</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1964,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1973,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J13" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>54</v>
@@ -1994,7 +2051,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -2006,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2027,10 +2084,10 @@
         <v>2</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB13" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
@@ -2056,7 +2113,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2065,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>0.80320000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="J14" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57940000000000003</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>54</v>
@@ -2086,7 +2143,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2098,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2119,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB14" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="1">
         <v>1</v>
@@ -2148,25 +2205,25 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.59209999999999996</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>0.80320000000000003</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>0.56830000000000003</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2178,7 +2235,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2190,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2205,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB15" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
         <v>1</v>
@@ -2240,22 +2297,22 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.33260000000000001</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>0.27100000000000002</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.94640000000000002</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>54</v>
@@ -2282,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2297,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
@@ -2332,22 +2389,22 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.33260000000000001</v>
+        <v>0.3609</v>
       </c>
       <c r="I17" s="1">
-        <v>0.27100000000000002</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.94640000000000002</v>
+        <v>0.87980000000000003</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>54</v>
@@ -2362,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2392,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AB17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
@@ -2424,25 +2481,25 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.21129999999999999</v>
+        <v>0.3609</v>
       </c>
       <c r="I18" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0.87980000000000003</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2454,7 +2511,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2466,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2481,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
         <v>1</v>
@@ -2516,25 +2573,25 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.2218</v>
+        <v>0.23269999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.2271</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2546,7 +2603,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2579,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2608,25 +2665,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.1318</v>
+        <v>0.23269999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>8.0600000000000005E-2</v>
+        <v>0.2271</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2638,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2700,25 +2757,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.2155</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.26840000000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2730,7 +2787,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2742,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2757,28 +2814,28 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AB21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
@@ -2792,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.2155</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.26840000000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2822,7 +2879,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2834,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2849,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
@@ -2884,25 +2941,25 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.2155</v>
+        <v>0.215</v>
       </c>
       <c r="I23" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.1431</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>55</v>
@@ -2914,7 +2971,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>58</v>
@@ -2926,31 +2983,31 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" s="1">
         <v>4</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>6</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
@@ -2976,25 +3033,25 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.2155</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.14680000000000001</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
@@ -3006,7 +3063,7 @@
         <v>56</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>58</v>
@@ -3018,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -3039,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="1">
         <v>1</v>
@@ -3077,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.2155</v>
+        <v>0.1183</v>
       </c>
       <c r="I25" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.1283</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3110,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3131,22 +3188,22 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
@@ -3169,16 +3226,16 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.2155</v>
+        <v>0.1183</v>
       </c>
       <c r="I26" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.1283</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3202,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3223,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="1">
         <v>1</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
@@ -3261,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.2155</v>
+        <v>0.1183</v>
       </c>
       <c r="I27" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.1283</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3294,34 +3351,34 @@
         <v>1</v>
       </c>
       <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="1">
         <v>4</v>
       </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>9</v>
-      </c>
       <c r="AC27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD27" s="1">
         <v>1</v>
@@ -3344,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.15060000000000001</v>
+        <v>0.1183</v>
       </c>
       <c r="I28" s="1">
-        <v>8.0600000000000005E-2</v>
+        <v>0.1283</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3374,7 +3431,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3383,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -3407,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AC28" s="1">
         <v>1</v>
@@ -3436,22 +3493,22 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.36399999999999999</v>
+        <v>0.1183</v>
       </c>
       <c r="I29" s="1">
-        <v>0.30969999999999998</v>
+        <v>0.1283</v>
       </c>
       <c r="J29" s="1">
-        <v>0.90620000000000001</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>54</v>
@@ -3466,7 +3523,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>58</v>
@@ -3478,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3493,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB29" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
@@ -3528,22 +3585,22 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>0.36399999999999999</v>
+        <v>0.15579999999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>0.30969999999999998</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="J30" s="1">
-        <v>0.90620000000000001</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>54</v>
@@ -3558,7 +3615,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3570,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
         <v>0</v>
@@ -3585,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB30" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC30" s="1">
         <v>1</v>
@@ -3629,16 +3686,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>0.19040000000000001</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>0.1145</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
@@ -3650,7 +3707,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>58</v>
@@ -3683,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB31" s="1">
         <v>1</v>
@@ -3721,16 +3778,16 @@
         <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>0.19040000000000001</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>0.1145</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3742,7 +3799,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3813,16 +3870,16 @@
         <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>0.19040000000000001</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="I33" s="1">
-        <v>0.1145</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3834,7 +3891,7 @@
         <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>58</v>
@@ -3867,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AB33" s="1">
         <v>18</v>
       </c>
       <c r="AC33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="1">
         <v>1</v>
@@ -3896,25 +3953,25 @@
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>0.52090000000000003</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="I34" s="1">
-        <v>0.44679999999999997</v>
+        <v>0.1195</v>
       </c>
       <c r="J34" s="1">
-        <v>0.89890000000000003</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>55</v>
@@ -3926,7 +3983,7 @@
         <v>56</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>58</v>
@@ -3959,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="1">
         <v>1</v>
@@ -3988,25 +4045,25 @@
         <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>8.1600000000000006E-2</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>9.0300000000000005E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="J35" s="1">
-        <v>0.69640000000000002</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>55</v>
@@ -4018,7 +4075,7 @@
         <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>58</v>
@@ -4027,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -4051,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="1">
         <v>1</v>
@@ -4080,22 +4137,22 @@
         <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>0.2364</v>
+        <v>8.09E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.23230000000000001</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="J36" s="1">
-        <v>0.78469999999999995</v>
+        <v>0.70689999999999997</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>54</v>
@@ -4110,7 +4167,7 @@
         <v>56</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>58</v>
@@ -4143,22 +4200,2230 @@
         <v>0</v>
       </c>
       <c r="AA36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.2772</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.82779999999999998</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.2772</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.82779999999999998</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>7</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>7</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>7</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>7</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>1</v>
+      <c r="AB42" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>7</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>7</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>7</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>7</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>7</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.3634</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.3634</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>2</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>2</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="I53" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.1389</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="1">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="1">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.1968</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.2014</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.1976</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.2014</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="1">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
